--- a/analysis/Student_Performance_Analysis.xlsx
+++ b/analysis/Student_Performance_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayla\Desktop\excel-exercises\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D3AD1D4A-96CB-4978-A633-07D735392A5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{134C516C-7A32-4065-9EA3-DF0FF65BEFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="43">
   <si>
     <t>gender</t>
   </si>
@@ -105,6 +105,9 @@
     <t>some high school</t>
   </si>
   <si>
+    <t>GENDER</t>
+  </si>
+  <si>
     <t>average score</t>
   </si>
   <si>
@@ -127,6 +130,51 @@
   </si>
   <si>
     <t>Average Writing Score</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>PARENTAL EDUCATION</t>
+  </si>
+  <si>
+    <t>Some High School</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>Some College</t>
+  </si>
+  <si>
+    <t>Associate Degree</t>
+  </si>
+  <si>
+    <t>Bachelor Degree</t>
+  </si>
+  <si>
+    <t>Master Degree</t>
+  </si>
+  <si>
+    <t>LUNCH TYPE</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Free/Reduced</t>
+  </si>
+  <si>
+    <t>TEST PREPARATION</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -334,7 +382,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,6 +963,9 @@
     <xf numFmtId="9" fontId="26" fillId="36" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -968,6 +1025,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2141220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1" descr="A stack of books">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E921CCB-EBD6-4584-A481-8EA248FC91F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164080" y="213360"/>
+          <a:ext cx="914400" cy="912495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1463038</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>521069</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EABF80-9DA7-4EFE-A455-6BAEDE51D211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15073" t="23530" r="10294" b="17279"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="514510">
+          <a:off x="11567158" y="7673340"/>
+          <a:ext cx="1854571" cy="1456415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1271,7 +1443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,20 +1475,20 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -36321,7 +36493,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1001"/>
-  <conditionalFormatting sqref="E2:H1001">
+  <conditionalFormatting sqref="E2:E1001 G2:H1001">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1001">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -36339,8 +36520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36373,7 +36554,7 @@
     <row r="2" spans="2:10" ht="47.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -36397,31 +36578,43 @@
     <row r="4" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="2:10" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14">
+        <f>COUNTIFS(Data!I:I,"Pass")/COUNT(Data!H:H)</f>
+        <v>0.9</v>
+      </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <f>AVERAGE(Data!E:E)/100</f>
+        <v>0.66088999999999998</v>
+      </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <f>AVERAGE(Data!F:F)/100</f>
+        <v>0.69168999999999992</v>
+      </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16">
+        <f>AVERAGE(Data!H:H)/100</f>
+        <v>0.67762</v>
+      </c>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -36457,40 +36650,70 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$A:$A,$C10)/100</f>
+        <v>0.68728215767634848</v>
+      </c>
       <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!A:A,$C10)/100</f>
+        <v>0.65473029045643161</v>
+      </c>
       <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="I10" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!A:A,$C10)/100</f>
+        <v>0.63311203319502074</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="29">
+        <f>AVERAGEIFS(Data!E:E,Data!$A:$A,$C11)/100</f>
+        <v>0.63633204633204632</v>
+      </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="G11" s="29">
+        <f>AVERAGEIFS(Data!F:F,Data!$A:$A,$C11)/100</f>
+        <v>0.72608108108108116</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <f>AVERAGEIFS(Data!G:G,Data!A:A,$C11)/100</f>
+        <v>0.72467181467181463</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -36501,7 +36724,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -36512,40 +36735,70 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!D:D,$C15)/100</f>
+        <v>0.69695530726256993</v>
+      </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!D:D,$C15)/100</f>
+        <v>0.73893854748603349</v>
+      </c>
       <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="25">
+        <f>AVERAGEIFS(Data!G:G,Data!D:D,$C15)/100</f>
+        <v>0.74418994413407813</v>
+      </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="29">
+        <f>AVERAGEIFS(Data!E:E,Data!D:D,$C16)/100</f>
+        <v>0.64077881619937704</v>
+      </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="29">
+        <f>AVERAGEIFS(Data!F:F,Data!D:D,$C16)/100</f>
+        <v>0.66534267912772593</v>
+      </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <f>AVERAGEIFS(Data!G:G,Data!D:D,$C16)/100</f>
+        <v>0.64504672897196258</v>
+      </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -36556,7 +36809,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -36567,40 +36820,70 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$C:$C,$C20)/100</f>
+        <v>0.70034108527131778</v>
+      </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$C:$C,$C20)/100</f>
+        <v>0.71654263565891474</v>
+      </c>
       <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$C:$C,$C20)/100</f>
+        <v>0.7082325581395349</v>
+      </c>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="29">
+        <f>AVERAGEIFS(Data!E:E,Data!$C:$C,$C21)/100</f>
+        <v>0.5892112676056338</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="29">
+        <f>AVERAGEIFS(Data!F:F,Data!$C:$C,$C21)/100</f>
+        <v>0.64653521126760571</v>
+      </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <f>AVERAGEIFS(Data!G:G,Data!$C:$C,$C21)/100</f>
+        <v>0.63022535211267605</v>
+      </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -36611,7 +36894,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -36622,81 +36905,155 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C25)/100</f>
+        <v>0.63497206703910614</v>
+      </c>
       <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C25)/100</f>
+        <v>0.66938547486033517</v>
+      </c>
       <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="I25" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C25)/100</f>
+        <v>0.64888268156424589</v>
+      </c>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C26)/100</f>
+        <v>0.62137755102040815</v>
+      </c>
       <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="G26" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C26)/100</f>
+        <v>0.64704081632653054</v>
+      </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C26)/100</f>
+        <v>0.62448979591836729</v>
+      </c>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C27)/100</f>
+        <v>0.67128318584070801</v>
+      </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C27)/100</f>
+        <v>0.69460176991150446</v>
+      </c>
       <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C27)/100</f>
+        <v>0.68840707964601777</v>
+      </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="23" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C28)/100</f>
+        <v>0.67882882882882878</v>
+      </c>
       <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C28)/100</f>
+        <v>0.70927927927927925</v>
+      </c>
       <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
+      <c r="I28" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C28)/100</f>
+        <v>0.69896396396396399</v>
+      </c>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="25">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C29)/100</f>
+        <v>0.6938983050847457</v>
+      </c>
       <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="G29" s="25">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C29)/100</f>
+        <v>0.73</v>
+      </c>
       <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="I29" s="26">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C29)/100</f>
+        <v>0.73381355932203396</v>
+      </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29">
+        <f>AVERAGEIFS(Data!E:E,Data!$B:$B,$C30)/100</f>
+        <v>0.69745762711864401</v>
+      </c>
       <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="29">
+        <f>AVERAGEIFS(Data!F:F,Data!$B:$B,$C30)/100</f>
+        <v>0.75372881355932209</v>
+      </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <f>AVERAGEIFS(Data!G:G,Data!$B:$B,$C30)/100</f>
+        <v>0.75677966101694916</v>
+      </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
@@ -36751,6 +37108,7 @@
     <mergeCell ref="C7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -36784,7 +37142,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C5 E5 G5 I5 E10:I11 E15:I16 E20:I21 E25:I30</xm:sqref>
+          <xm:sqref>C5 E5 E25:I30 G5 I5 E10:I11 E15:I16 E20:I21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/analysis/Student_Performance_Analysis.xlsx
+++ b/analysis/Student_Performance_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayla\Desktop\excel-exercises\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{134C516C-7A32-4065-9EA3-DF0FF65BEFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0290003A-7132-4330-9612-0BE3B8161545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
@@ -1443,7 +1443,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36520,8 +36520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/analysis/Student_Performance_Analysis.xlsx
+++ b/analysis/Student_Performance_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayla\Desktop\excel-exercises\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0290003A-7132-4330-9612-0BE3B8161545}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DD7567A0-D33F-49F3-A32D-1A5A5BF159F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
